--- a/data/SDERSvalid_Codebook.xlsx
+++ b/data/SDERSvalid_Codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/441cc9bc8c67f6c4/Arbeit/Projekte/S-DERS validation/SDERSvalid_Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3042B5A0-D6D3-4F9F-B2D6-BF10E992EA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-5250" windowWidth="19200" windowHeight="21000" xr2:uid="{27B07736-5F70-481F-B151-5B034EAA5B14}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{27B07736-5F70-481F-B151-5B034EAA5B14}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey_Baseline" sheetId="1" r:id="rId1"/>
@@ -2374,14 +2374,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
@@ -2719,22 +2718,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A158BFEF-280B-4605-8D99-B610E54F5A78}">
   <dimension ref="A1:E327"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>165</v>
       </c>
@@ -2751,7 +2750,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>518</v>
@@ -2759,7 +2758,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>519</v>
@@ -2770,7 +2769,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>619</v>
@@ -2778,7 +2777,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>620</v>
@@ -2786,7 +2785,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>621</v>
@@ -2794,7 +2793,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>622</v>
@@ -2802,7 +2801,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>623</v>
@@ -2810,7 +2809,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>624</v>
@@ -2818,7 +2817,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>520</v>
@@ -2829,7 +2828,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>625</v>
@@ -2837,7 +2836,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>521</v>
@@ -2848,7 +2847,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>522</v>
@@ -2859,7 +2858,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>523</v>
@@ -2870,7 +2869,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>524</v>
@@ -2881,7 +2880,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>525</v>
@@ -2892,7 +2891,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>526</v>
@@ -2903,7 +2902,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
         <v>626</v>
@@ -2914,12 +2913,12 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>461</v>
       </c>
@@ -2930,7 +2929,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>462</v>
       </c>
@@ -2944,7 +2943,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>463</v>
       </c>
@@ -2958,7 +2957,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>464</v>
       </c>
@@ -2972,7 +2971,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>465</v>
       </c>
@@ -2986,7 +2985,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>466</v>
       </c>
@@ -3000,7 +2999,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>467</v>
       </c>
@@ -3014,7 +3013,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>468</v>
       </c>
@@ -3028,7 +3027,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>469</v>
       </c>
@@ -3042,12 +3041,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>470</v>
       </c>
@@ -3061,7 +3060,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>627</v>
       </c>
@@ -3072,7 +3071,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>628</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>629</v>
       </c>
@@ -3094,7 +3093,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>471</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>472</v>
       </c>
@@ -3122,7 +3121,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>8</v>
       </c>
@@ -3133,7 +3132,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>473</v>
       </c>
@@ -3144,7 +3143,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>474</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>475</v>
       </c>
@@ -3166,7 +3165,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>476</v>
       </c>
@@ -3177,7 +3176,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>477</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>478</v>
       </c>
@@ -3199,12 +3198,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>479</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>480</v>
       </c>
@@ -3226,7 +3225,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>481</v>
       </c>
@@ -3237,12 +3236,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>482</v>
       </c>
@@ -3253,12 +3252,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>483</v>
       </c>
@@ -3269,7 +3268,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>9</v>
       </c>
@@ -3280,7 +3279,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>517</v>
       </c>
@@ -3294,7 +3293,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" t="s">
         <v>11</v>
@@ -3306,7 +3305,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>517</v>
       </c>
@@ -3320,7 +3319,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>517</v>
       </c>
@@ -3334,7 +3333,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>517</v>
       </c>
@@ -3348,7 +3347,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>517</v>
       </c>
@@ -3362,7 +3361,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>517</v>
       </c>
@@ -3376,7 +3375,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>517</v>
       </c>
@@ -3390,7 +3389,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>517</v>
       </c>
@@ -3404,7 +3403,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
         <v>19</v>
@@ -3416,7 +3415,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>517</v>
       </c>
@@ -3430,7 +3429,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" t="s">
         <v>21</v>
@@ -3442,7 +3441,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>517</v>
       </c>
@@ -3456,7 +3455,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" t="s">
         <v>23</v>
@@ -3468,7 +3467,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>517</v>
       </c>
@@ -3482,7 +3481,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" t="s">
         <v>551</v>
@@ -3491,7 +3490,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" t="s">
         <v>583</v>
@@ -3500,7 +3499,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" t="s">
         <v>552</v>
@@ -3509,7 +3508,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" t="s">
         <v>584</v>
@@ -3518,12 +3517,12 @@
         <v>655</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>484</v>
       </c>
@@ -3534,7 +3533,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>517</v>
       </c>
@@ -3548,7 +3547,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>26</v>
       </c>
@@ -3559,7 +3558,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>27</v>
       </c>
@@ -3570,7 +3569,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>517</v>
       </c>
@@ -3584,7 +3583,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>29</v>
       </c>
@@ -3595,7 +3594,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>30</v>
       </c>
@@ -3606,7 +3605,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>517</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>32</v>
       </c>
@@ -3631,7 +3630,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>33</v>
       </c>
@@ -3642,7 +3641,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>517</v>
       </c>
@@ -3656,7 +3655,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>35</v>
       </c>
@@ -3667,7 +3666,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>36</v>
       </c>
@@ -3678,7 +3677,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>553</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>585</v>
       </c>
@@ -3694,12 +3693,12 @@
         <v>657</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>485</v>
       </c>
@@ -3710,7 +3709,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>517</v>
       </c>
@@ -3724,7 +3723,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>517</v>
       </c>
@@ -3738,7 +3737,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>39</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>40</v>
       </c>
@@ -3760,7 +3759,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>41</v>
       </c>
@@ -3771,7 +3770,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>517</v>
       </c>
@@ -3785,7 +3784,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>517</v>
       </c>
@@ -3799,7 +3798,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>44</v>
       </c>
@@ -3810,7 +3809,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>45</v>
       </c>
@@ -3821,7 +3820,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>517</v>
       </c>
@@ -3835,7 +3834,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>47</v>
       </c>
@@ -3846,7 +3845,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>48</v>
       </c>
@@ -3857,7 +3856,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>49</v>
       </c>
@@ -3868,7 +3867,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>50</v>
       </c>
@@ -3879,7 +3878,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>51</v>
       </c>
@@ -3890,7 +3889,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>52</v>
       </c>
@@ -3901,7 +3900,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>517</v>
       </c>
@@ -3915,7 +3914,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>54</v>
       </c>
@@ -3926,7 +3925,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>55</v>
       </c>
@@ -3937,7 +3936,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>517</v>
       </c>
@@ -3951,7 +3950,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>57</v>
       </c>
@@ -3962,7 +3961,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>517</v>
       </c>
@@ -3976,7 +3975,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>59</v>
       </c>
@@ -3987,7 +3986,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>517</v>
       </c>
@@ -4001,7 +4000,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>61</v>
       </c>
@@ -4012,7 +4011,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>62</v>
       </c>
@@ -4023,7 +4022,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>63</v>
       </c>
@@ -4034,7 +4033,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>64</v>
       </c>
@@ -4045,7 +4044,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>65</v>
       </c>
@@ -4056,7 +4055,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>66</v>
       </c>
@@ -4067,7 +4066,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>67</v>
       </c>
@@ -4078,7 +4077,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>68</v>
       </c>
@@ -4089,7 +4088,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>69</v>
       </c>
@@ -4100,7 +4099,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>517</v>
       </c>
@@ -4114,7 +4113,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>71</v>
       </c>
@@ -4125,7 +4124,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>72</v>
       </c>
@@ -4136,7 +4135,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>554</v>
       </c>
@@ -4144,7 +4143,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>586</v>
       </c>
@@ -4152,7 +4151,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>555</v>
       </c>
@@ -4160,7 +4159,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>587</v>
       </c>
@@ -4168,7 +4167,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>556</v>
       </c>
@@ -4176,7 +4175,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>588</v>
       </c>
@@ -4184,7 +4183,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>557</v>
       </c>
@@ -4192,7 +4191,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>589</v>
       </c>
@@ -4200,7 +4199,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>558</v>
       </c>
@@ -4208,7 +4207,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>590</v>
       </c>
@@ -4216,7 +4215,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>559</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>591</v>
       </c>
@@ -4232,7 +4231,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>560</v>
       </c>
@@ -4240,7 +4239,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>592</v>
       </c>
@@ -4248,7 +4247,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>593</v>
       </c>
@@ -4256,12 +4255,12 @@
         <v>672</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>486</v>
       </c>
@@ -4272,7 +4271,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>73</v>
       </c>
@@ -4283,7 +4282,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>74</v>
       </c>
@@ -4294,7 +4293,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>75</v>
       </c>
@@ -4305,7 +4304,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>76</v>
       </c>
@@ -4316,7 +4315,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>77</v>
       </c>
@@ -4327,7 +4326,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>78</v>
       </c>
@@ -4338,7 +4337,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>79</v>
       </c>
@@ -4349,7 +4348,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>80</v>
       </c>
@@ -4360,7 +4359,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>81</v>
       </c>
@@ -4371,7 +4370,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>82</v>
       </c>
@@ -4382,7 +4381,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>83</v>
       </c>
@@ -4393,7 +4392,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>84</v>
       </c>
@@ -4404,7 +4403,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>85</v>
       </c>
@@ -4415,7 +4414,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>86</v>
       </c>
@@ -4426,7 +4425,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>87</v>
       </c>
@@ -4437,7 +4436,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>88</v>
       </c>
@@ -4448,7 +4447,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>89</v>
       </c>
@@ -4459,7 +4458,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>90</v>
       </c>
@@ -4470,7 +4469,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>91</v>
       </c>
@@ -4481,7 +4480,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>92</v>
       </c>
@@ -4492,7 +4491,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>561</v>
       </c>
@@ -4500,7 +4499,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>594</v>
       </c>
@@ -4508,7 +4507,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>562</v>
       </c>
@@ -4516,7 +4515,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>595</v>
       </c>
@@ -4524,7 +4523,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>563</v>
       </c>
@@ -4532,7 +4531,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>596</v>
       </c>
@@ -4540,7 +4539,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>564</v>
       </c>
@@ -4548,7 +4547,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>597</v>
       </c>
@@ -4556,7 +4555,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>565</v>
       </c>
@@ -4564,7 +4563,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>598</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>599</v>
       </c>
@@ -4580,12 +4579,12 @@
         <v>683</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>487</v>
       </c>
@@ -4596,7 +4595,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>93</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>94</v>
       </c>
@@ -4618,7 +4617,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>95</v>
       </c>
@@ -4629,7 +4628,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>96</v>
       </c>
@@ -4640,7 +4639,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>97</v>
       </c>
@@ -4651,7 +4650,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>98</v>
       </c>
@@ -4662,7 +4661,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>99</v>
       </c>
@@ -4673,7 +4672,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>100</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>101</v>
       </c>
@@ -4695,7 +4694,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>102</v>
       </c>
@@ -4706,7 +4705,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>103</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>104</v>
       </c>
@@ -4728,7 +4727,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>105</v>
       </c>
@@ -4739,7 +4738,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>106</v>
       </c>
@@ -4750,7 +4749,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>107</v>
       </c>
@@ -4761,7 +4760,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>108</v>
       </c>
@@ -4772,7 +4771,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>109</v>
       </c>
@@ -4783,7 +4782,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>110</v>
       </c>
@@ -4794,7 +4793,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>111</v>
       </c>
@@ -4805,7 +4804,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>112</v>
       </c>
@@ -4816,7 +4815,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>113</v>
       </c>
@@ -4827,7 +4826,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>684</v>
       </c>
@@ -4835,7 +4834,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>685</v>
       </c>
@@ -4843,7 +4842,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>686</v>
       </c>
@@ -4851,7 +4850,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>687</v>
       </c>
@@ -4859,7 +4858,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>688</v>
       </c>
@@ -4867,7 +4866,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>689</v>
       </c>
@@ -4875,7 +4874,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>566</v>
       </c>
@@ -4883,7 +4882,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>600</v>
       </c>
@@ -4891,12 +4890,12 @@
         <v>697</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>488</v>
       </c>
@@ -4907,7 +4906,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>114</v>
       </c>
@@ -4918,7 +4917,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>517</v>
       </c>
@@ -4932,7 +4931,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>116</v>
       </c>
@@ -4943,7 +4942,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>117</v>
       </c>
@@ -4954,7 +4953,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>517</v>
       </c>
@@ -4968,7 +4967,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>119</v>
       </c>
@@ -4979,7 +4978,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>517</v>
       </c>
@@ -4993,7 +4992,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>121</v>
       </c>
@@ -5004,7 +5003,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>122</v>
       </c>
@@ -5015,7 +5014,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>123</v>
       </c>
@@ -5026,7 +5025,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>124</v>
       </c>
@@ -5037,7 +5036,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>125</v>
       </c>
@@ -5048,7 +5047,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>517</v>
       </c>
@@ -5062,7 +5061,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>127</v>
       </c>
@@ -5073,7 +5072,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>128</v>
       </c>
@@ -5084,7 +5083,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>129</v>
       </c>
@@ -5095,7 +5094,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>130</v>
       </c>
@@ -5106,7 +5105,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>131</v>
       </c>
@@ -5117,7 +5116,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>517</v>
       </c>
@@ -5131,7 +5130,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>133</v>
       </c>
@@ -5142,7 +5141,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>134</v>
       </c>
@@ -5153,7 +5152,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>135</v>
       </c>
@@ -5164,7 +5163,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>136</v>
       </c>
@@ -5175,7 +5174,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>137</v>
       </c>
@@ -5186,7 +5185,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>138</v>
       </c>
@@ -5197,7 +5196,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>517</v>
       </c>
@@ -5211,7 +5210,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>140</v>
       </c>
@@ -5222,7 +5221,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>517</v>
       </c>
@@ -5236,7 +5235,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" t="s">
         <v>567</v>
@@ -5245,7 +5244,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" t="s">
         <v>601</v>
@@ -5254,7 +5253,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" t="s">
         <v>568</v>
@@ -5263,7 +5262,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" t="s">
         <v>602</v>
@@ -5272,7 +5271,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" t="s">
         <v>569</v>
@@ -5281,7 +5280,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" t="s">
         <v>603</v>
@@ -5290,7 +5289,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" t="s">
         <v>570</v>
@@ -5299,7 +5298,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" t="s">
         <v>604</v>
@@ -5308,7 +5307,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" t="s">
         <v>571</v>
@@ -5317,7 +5316,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" t="s">
         <v>605</v>
@@ -5326,7 +5325,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" t="s">
         <v>572</v>
@@ -5335,7 +5334,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" t="s">
         <v>606</v>
@@ -5344,12 +5343,12 @@
         <v>709</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>489</v>
       </c>
@@ -5360,7 +5359,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>517</v>
       </c>
@@ -5374,7 +5373,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>143</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>144</v>
       </c>
@@ -5396,7 +5395,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>517</v>
       </c>
@@ -5410,7 +5409,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>517</v>
       </c>
@@ -5424,7 +5423,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>147</v>
       </c>
@@ -5435,7 +5434,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>517</v>
       </c>
@@ -5449,7 +5448,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>517</v>
       </c>
@@ -5463,7 +5462,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>150</v>
       </c>
@@ -5474,7 +5473,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>151</v>
       </c>
@@ -5485,7 +5484,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>152</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>153</v>
       </c>
@@ -5507,7 +5506,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>154</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>155</v>
       </c>
@@ -5529,7 +5528,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>517</v>
       </c>
@@ -5543,7 +5542,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" t="s">
         <v>573</v>
@@ -5552,7 +5551,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" t="s">
         <v>607</v>
@@ -5561,7 +5560,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" t="s">
         <v>574</v>
@@ -5570,7 +5569,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" t="s">
         <v>608</v>
@@ -5579,7 +5578,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" t="s">
         <v>575</v>
@@ -5588,7 +5587,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" t="s">
         <v>609</v>
@@ -5597,7 +5596,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" t="s">
         <v>576</v>
@@ -5606,7 +5605,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" t="s">
         <v>610</v>
@@ -5615,12 +5614,12 @@
         <v>717</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>490</v>
       </c>
@@ -5631,7 +5630,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>157</v>
       </c>
@@ -5642,7 +5641,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>158</v>
       </c>
@@ -5653,7 +5652,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>159</v>
       </c>
@@ -5664,7 +5663,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>160</v>
       </c>
@@ -5675,7 +5674,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>161</v>
       </c>
@@ -5686,7 +5685,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>162</v>
       </c>
@@ -5697,7 +5696,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>163</v>
       </c>
@@ -5708,7 +5707,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>577</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>630</v>
       </c>
@@ -5724,12 +5723,12 @@
         <v>719</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>491</v>
       </c>
@@ -5743,7 +5742,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>492</v>
       </c>
@@ -5757,7 +5756,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>547</v>
       </c>
@@ -5768,7 +5767,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>548</v>
       </c>
@@ -5779,7 +5778,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>493</v>
       </c>
@@ -5790,7 +5789,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>549</v>
       </c>
@@ -5801,7 +5800,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>550</v>
       </c>
@@ -5812,7 +5811,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>494</v>
       </c>
@@ -5823,12 +5822,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>495</v>
       </c>
@@ -5839,7 +5838,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>405</v>
       </c>
@@ -5850,7 +5849,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>406</v>
       </c>
@@ -5861,7 +5860,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>407</v>
       </c>
@@ -5872,7 +5871,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>408</v>
       </c>
@@ -5883,7 +5882,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>409</v>
       </c>
@@ -5894,7 +5893,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>410</v>
       </c>
@@ -5905,7 +5904,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>411</v>
       </c>
@@ -5916,7 +5915,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>412</v>
       </c>
@@ -5927,7 +5926,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>413</v>
       </c>
@@ -5938,7 +5937,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>414</v>
       </c>
@@ -5949,7 +5948,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>415</v>
       </c>
@@ -5960,7 +5959,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>416</v>
       </c>
@@ -5971,7 +5970,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
         <v>417</v>
       </c>
@@ -5982,7 +5981,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
         <v>418</v>
       </c>
@@ -5993,7 +5992,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
         <v>419</v>
       </c>
@@ -6004,7 +6003,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>420</v>
       </c>
@@ -6015,7 +6014,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>421</v>
       </c>
@@ -6026,7 +6025,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>422</v>
       </c>
@@ -6037,7 +6036,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>517</v>
       </c>
@@ -6051,7 +6050,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>424</v>
       </c>
@@ -6062,7 +6061,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
         <v>425</v>
       </c>
@@ -6073,7 +6072,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>578</v>
       </c>
@@ -6081,7 +6080,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
         <v>611</v>
       </c>
@@ -6089,7 +6088,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>579</v>
       </c>
@@ -6097,7 +6096,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>612</v>
       </c>
@@ -6105,7 +6104,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>580</v>
       </c>
@@ -6113,7 +6112,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>613</v>
       </c>
@@ -6121,7 +6120,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>581</v>
       </c>
@@ -6129,7 +6128,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>614</v>
       </c>
@@ -6137,7 +6136,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
         <v>582</v>
       </c>
@@ -6145,7 +6144,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>615</v>
       </c>
@@ -6153,12 +6152,12 @@
         <v>730</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
         <v>496</v>
       </c>
@@ -6172,7 +6171,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
         <v>530</v>
       </c>
@@ -6187,21 +6186,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A9E8F1-665C-47EB-B51B-0D118C1F7343}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="102.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="102.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>165</v>
       </c>
@@ -6218,12 +6217,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>519</v>
       </c>
@@ -6231,7 +6230,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>520</v>
       </c>
@@ -6239,7 +6238,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>521</v>
       </c>
@@ -6247,7 +6246,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>522</v>
       </c>
@@ -6255,7 +6254,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>523</v>
       </c>
@@ -6263,7 +6262,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>524</v>
       </c>
@@ -6271,7 +6270,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>525</v>
       </c>
@@ -6279,7 +6278,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>526</v>
       </c>
@@ -6287,12 +6286,12 @@
         <v>618</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>497</v>
       </c>
@@ -6306,12 +6305,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>498</v>
       </c>
@@ -6325,12 +6324,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>432</v>
       </c>
@@ -6341,7 +6340,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>517</v>
       </c>
@@ -6355,7 +6354,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>434</v>
@@ -6367,7 +6366,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>435</v>
@@ -6379,7 +6378,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>436</v>
@@ -6391,7 +6390,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>517</v>
       </c>
@@ -6405,7 +6404,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>438</v>
@@ -6417,7 +6416,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>439</v>
@@ -6429,7 +6428,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>440</v>
@@ -6441,7 +6440,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>441</v>
@@ -6453,7 +6452,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>517</v>
       </c>
@@ -6467,7 +6466,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>443</v>
@@ -6479,7 +6478,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>444</v>
@@ -6491,7 +6490,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>445</v>
@@ -6503,7 +6502,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>446</v>
@@ -6515,7 +6514,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>517</v>
       </c>
@@ -6529,7 +6528,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>448</v>
@@ -6541,7 +6540,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>449</v>
@@ -6553,7 +6552,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>517</v>
       </c>
@@ -6567,8 +6566,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>451</v>
       </c>
@@ -6579,8 +6577,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>452</v>
       </c>
@@ -6591,8 +6588,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>537</v>
       </c>
@@ -6600,8 +6596,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>538</v>
       </c>
@@ -6609,7 +6604,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>539</v>
       </c>
@@ -6617,7 +6612,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>540</v>
       </c>
@@ -6625,7 +6620,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>541</v>
       </c>
@@ -6633,7 +6628,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>542</v>
       </c>
@@ -6641,7 +6636,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>543</v>
       </c>
@@ -6649,7 +6644,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>544</v>
       </c>
@@ -6657,7 +6652,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>545</v>
       </c>
@@ -6665,7 +6660,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>546</v>
       </c>
@@ -6673,12 +6668,12 @@
         <v>749</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>527</v>
       </c>
@@ -6689,7 +6684,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>528</v>
       </c>
@@ -6697,12 +6692,12 @@
         <v>732</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>499</v>
       </c>
@@ -6716,7 +6711,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>500</v>
       </c>
@@ -6730,12 +6725,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>453</v>
       </c>
@@ -6746,7 +6741,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>454</v>
       </c>
@@ -6757,7 +6752,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>529</v>
       </c>
@@ -6768,7 +6763,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>455</v>
       </c>
@@ -6779,12 +6774,12 @@
         <v>511</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>456</v>
       </c>
@@ -6795,7 +6790,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>457</v>
       </c>
@@ -6806,12 +6801,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>458</v>
       </c>
@@ -6822,7 +6817,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>459</v>
       </c>
@@ -6833,12 +6828,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>460</v>
       </c>
@@ -6852,37 +6847,37 @@
         <v>186</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>536</v>
       </c>
